--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="72">
   <si>
     <t>data</t>
   </si>
@@ -27,9 +27,6 @@
     <t>horario</t>
   </si>
   <si>
-    <t>advsersario</t>
-  </si>
-  <si>
     <t>mando</t>
   </si>
   <si>
@@ -229,6 +226,12 @@
   </si>
   <si>
     <t>Fonte Nova</t>
+  </si>
+  <si>
+    <t>adversario</t>
+  </si>
+  <si>
+    <t>São Januário</t>
   </si>
 </sst>
 </file>
@@ -236,7 +239,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -270,7 +273,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,25 +604,25 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -633,16 +636,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -651,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -665,25 +668,25 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
         <v>17</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -697,25 +700,25 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -729,16 +732,16 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
         <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -747,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -761,16 +764,16 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -779,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -793,16 +796,16 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -811,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -825,16 +828,16 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -843,7 +846,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -857,17 +860,17 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
         <v>26</v>
       </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
       <c r="H9">
         <v>1</v>
       </c>
@@ -875,7 +878,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -889,16 +892,16 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -907,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -921,16 +924,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -939,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -953,16 +956,16 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -971,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -985,17 +988,17 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
         <v>30</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
         <v>31</v>
       </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
       <c r="H13">
         <v>0</v>
       </c>
@@ -1003,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1017,16 +1020,16 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
         <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1035,7 +1038,7 @@
         <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1049,16 +1052,16 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1067,7 +1070,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1081,17 +1084,17 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
         <v>36</v>
       </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>37</v>
-      </c>
       <c r="H16">
         <v>1</v>
       </c>
@@ -1099,7 +1102,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1113,16 +1116,16 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -1131,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1145,17 +1148,17 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
         <v>39</v>
       </c>
-      <c r="E18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>40</v>
-      </c>
       <c r="H18">
         <v>0</v>
       </c>
@@ -1163,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1177,17 +1180,17 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
         <v>41</v>
       </c>
-      <c r="E19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s">
-        <v>42</v>
-      </c>
       <c r="H19">
         <v>1</v>
       </c>
@@ -1195,7 +1198,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1209,17 +1212,17 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
         <v>43</v>
       </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>44</v>
-      </c>
       <c r="H20">
         <v>1</v>
       </c>
@@ -1227,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1241,16 +1244,16 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
         <v>45</v>
       </c>
-      <c r="E21" t="s">
-        <v>46</v>
-      </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -1259,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1273,16 +1276,16 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -1291,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1305,16 +1308,16 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1323,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1337,16 +1340,16 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
         <v>49</v>
-      </c>
-      <c r="E24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>50</v>
       </c>
       <c r="H24">
         <v>4</v>
@@ -1355,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1369,16 +1372,16 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -1387,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1401,16 +1404,16 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1419,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1433,16 +1436,16 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" t="s">
         <v>45</v>
       </c>
-      <c r="E27" t="s">
-        <v>46</v>
-      </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -1451,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1465,17 +1468,17 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
         <v>52</v>
       </c>
-      <c r="E28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>53</v>
-      </c>
       <c r="H28">
         <v>2</v>
       </c>
@@ -1483,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1497,16 +1500,16 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" t="s">
         <v>30</v>
       </c>
-      <c r="E29" t="s">
-        <v>31</v>
-      </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1515,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1529,16 +1532,16 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -1547,7 +1550,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1561,16 +1564,16 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1579,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1593,16 +1596,16 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H32">
         <v>4</v>
@@ -1611,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1625,17 +1628,17 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
         <v>57</v>
       </c>
-      <c r="E33" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>58</v>
-      </c>
       <c r="H33">
         <v>2</v>
       </c>
@@ -1643,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1657,16 +1660,16 @@
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H34">
         <v>4</v>
@@ -1675,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1689,17 +1692,17 @@
         <v>34</v>
       </c>
       <c r="D35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
         <v>60</v>
       </c>
-      <c r="E35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>61</v>
-      </c>
       <c r="H35">
         <v>0</v>
       </c>
@@ -1707,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1721,16 +1724,16 @@
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -1739,7 +1742,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1753,16 +1756,16 @@
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -1771,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1785,17 +1788,17 @@
         <v>37</v>
       </c>
       <c r="D38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" t="s">
         <v>64</v>
       </c>
-      <c r="E38" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s">
-        <v>65</v>
-      </c>
       <c r="H38">
         <v>2</v>
       </c>
@@ -1803,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1817,16 +1820,16 @@
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -1835,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1849,16 +1852,16 @@
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -1867,7 +1870,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -1881,16 +1884,16 @@
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -1899,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -1913,16 +1916,16 @@
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -1931,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -1945,16 +1948,16 @@
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -1963,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -1977,16 +1980,16 @@
         <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -1995,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2009,16 +2012,16 @@
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -2027,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2041,16 +2044,16 @@
         <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -2059,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2073,16 +2076,16 @@
         <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -2091,7 +2094,39 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>45896</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+      <c r="D48" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" t="s">
+        <v>71</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
